--- a/Model Parameters_V1.xlsx
+++ b/Model Parameters_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levanpavlenishvili/Documents/MSc Operational Research/Courses/Dissertation/Model/Test Network with Multi Generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levanpavlenishvili/Documents/MSc Operational Research/Courses/Dissertation/Model/Test Network with Multi Generator/Multi-Gen Test V4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A89A80-CB77-8A47-9D0B-B6393FE686A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AC2EC-3748-1E4B-9042-B8C87300CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="2" activeTab="5" xr2:uid="{58E615DB-BF4C-8249-91BB-41EBD0AAC6FA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{58E615DB-BF4C-8249-91BB-41EBD0AAC6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="207">
   <si>
     <t>Generation Parameters</t>
   </si>
@@ -673,6 +673,15 @@
   <si>
     <t>RDO_tng</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
@@ -943,7 +952,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
@@ -953,6 +961,7 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,7 +1310,7 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="42">
         <v>1000000</v>
       </c>
     </row>
@@ -1453,7 +1462,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D13"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,168 +1485,168 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="19">
+        <v>395.41015625</v>
+      </c>
+      <c r="C2" s="19">
         <v>195.41015625</v>
       </c>
-      <c r="C2" s="17">
-        <v>96.5576171875</v>
-      </c>
-      <c r="D2" s="17">
-        <v>97.705078125</v>
+      <c r="D2" s="19">
+        <v>196.5576171875</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="19">
+        <v>381.1578369140625</v>
+      </c>
+      <c r="C3" s="19">
         <v>181.1578369140625</v>
       </c>
-      <c r="C3" s="17">
-        <v>85.868377685546875</v>
-      </c>
-      <c r="D3" s="17">
-        <v>90.57891845703125</v>
+      <c r="D3" s="19">
+        <v>185.86837768554688</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="19">
+        <v>380.819091796875</v>
+      </c>
+      <c r="C4" s="19">
         <v>180.819091796875</v>
       </c>
-      <c r="C4" s="17">
-        <v>85.61431884765625</v>
-      </c>
-      <c r="D4" s="17">
-        <v>90.4095458984375</v>
+      <c r="D4" s="19">
+        <v>185.61431884765625</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="19">
+        <v>381.2786865234375</v>
+      </c>
+      <c r="C5" s="19">
         <v>181.2786865234375</v>
       </c>
-      <c r="C5" s="17">
-        <v>85.959014892578125</v>
-      </c>
-      <c r="D5" s="17">
-        <v>90.63934326171875</v>
+      <c r="D5" s="19">
+        <v>185.95901489257812</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="19">
+        <v>398.60107421875</v>
+      </c>
+      <c r="C6" s="19">
         <v>198.60107421875</v>
       </c>
-      <c r="C6" s="17">
-        <v>98.9508056640625</v>
-      </c>
-      <c r="D6" s="17">
-        <v>99.300537109375</v>
+      <c r="D6" s="19">
+        <v>198.9508056640625</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="19">
+        <v>396.9366455078125</v>
+      </c>
+      <c r="C7" s="19">
         <v>196.9366455078125</v>
       </c>
-      <c r="C7" s="17">
-        <v>97.702484130859375</v>
-      </c>
-      <c r="D7" s="17">
-        <v>98.46832275390625</v>
+      <c r="D7" s="19">
+        <v>197.70248413085938</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="19">
+        <v>399.302978515625</v>
+      </c>
+      <c r="C8" s="19">
         <v>199.302978515625</v>
       </c>
-      <c r="C8" s="17">
-        <v>99.47723388671875</v>
-      </c>
-      <c r="D8" s="17">
-        <v>99.6514892578125</v>
+      <c r="D8" s="19">
+        <v>199.47723388671875</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="19">
+        <v>392.7410888671875</v>
+      </c>
+      <c r="C9" s="19">
         <v>192.7410888671875</v>
       </c>
-      <c r="C9" s="17">
-        <v>94.555816650390625</v>
-      </c>
-      <c r="D9" s="17">
-        <v>96.37054443359375</v>
+      <c r="D9" s="19">
+        <v>194.55581665039062</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="19">
+        <v>380.3466796875</v>
+      </c>
+      <c r="C10" s="19">
         <v>180.3466796875</v>
       </c>
-      <c r="C10" s="17">
-        <v>85.260009765625</v>
-      </c>
-      <c r="D10" s="17">
-        <v>90.17333984375</v>
+      <c r="D10" s="19">
+        <v>185.260009765625</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="19">
+        <v>382.6763916015625</v>
+      </c>
+      <c r="C11" s="19">
         <v>182.6763916015625</v>
       </c>
-      <c r="C11" s="17">
-        <v>87.007293701171875</v>
-      </c>
-      <c r="D11" s="17">
-        <v>91.33819580078125</v>
+      <c r="D11" s="19">
+        <v>187.00729370117188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="19">
+        <v>381.029052734375</v>
+      </c>
+      <c r="C12" s="19">
         <v>181.029052734375</v>
       </c>
-      <c r="C12" s="17">
-        <v>85.77178955078125</v>
-      </c>
-      <c r="D12" s="17">
-        <v>90.5145263671875</v>
+      <c r="D12" s="19">
+        <v>185.77178955078125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="19">
+        <v>385.1019287109375</v>
+      </c>
+      <c r="C13" s="19">
         <v>185.1019287109375</v>
       </c>
-      <c r="C13" s="17">
-        <v>88.826446533203125</v>
-      </c>
-      <c r="D13" s="17">
-        <v>92.55096435546875</v>
+      <c r="D13" s="19">
+        <v>188.82644653320312</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1660,7 +1669,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17">
-        <v>198.40423583984375</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17">
-        <v>198.9361572265625</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17">
-        <v>97.872314453125</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3061,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3070,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17">
-        <v>299.58847045898438</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3078,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17">
-        <v>199.6514892578125</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3086,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17">
-        <v>138.40423583984375</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4719,7 +4728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DD5F87-2D0E-4C4A-946B-345CCF571733}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24:Q31"/>
     </sheetView>
   </sheetViews>
@@ -5712,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9EBC9-2ABD-F745-860D-4237DDDB727C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5737,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5759,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5770,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5781,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>640</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5792,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5803,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5814,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5826,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA43C6E-071F-6649-B695-B4FE00F49C39}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K19"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5903,65 +5912,65 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D4" s="19">
         <f>($C$4-$B$4)*D7+$B$4</f>
-        <v>195.41015625</v>
+        <v>395.41015625</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:O4" si="0">($C$4-$B$4)*E7+$B$4</f>
-        <v>181.1578369140625</v>
+        <v>381.1578369140625</v>
       </c>
       <c r="F4" s="19">
         <f t="shared" si="0"/>
-        <v>180.819091796875</v>
+        <v>380.819091796875</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="0"/>
-        <v>181.2786865234375</v>
+        <v>381.2786865234375</v>
       </c>
       <c r="H4" s="19">
         <f t="shared" si="0"/>
-        <v>198.60107421875</v>
+        <v>398.60107421875</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>196.9366455078125</v>
+        <v>396.9366455078125</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
-        <v>199.302978515625</v>
+        <v>399.302978515625</v>
       </c>
       <c r="K4" s="19">
         <f t="shared" si="0"/>
-        <v>192.7410888671875</v>
+        <v>392.7410888671875</v>
       </c>
       <c r="L4" s="19">
         <f t="shared" si="0"/>
-        <v>180.3466796875</v>
+        <v>380.3466796875</v>
       </c>
       <c r="M4" s="19">
         <f t="shared" si="0"/>
-        <v>182.6763916015625</v>
+        <v>382.6763916015625</v>
       </c>
       <c r="N4" s="19">
         <f t="shared" si="0"/>
-        <v>181.029052734375</v>
+        <v>381.029052734375</v>
       </c>
       <c r="O4" s="19">
         <f t="shared" si="0"/>
-        <v>185.1019287109375</v>
+        <v>385.1019287109375</v>
       </c>
       <c r="P4">
         <v>671</v>
       </c>
       <c r="Q4" s="19">
         <f>AVERAGE(D4:O4)</f>
-        <v>187.95013427734375</v>
+        <v>387.95013427734375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -5969,65 +5978,65 @@
         <v>69</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5" s="19">
         <f>($C$5-$B$5)*D7+$B$5</f>
-        <v>96.5576171875</v>
+        <v>195.41015625</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:O5" si="1">($C$5-$B$5)*E7+$B$5</f>
-        <v>85.868377685546875</v>
+        <v>181.1578369140625</v>
       </c>
       <c r="F5" s="19">
         <f t="shared" si="1"/>
-        <v>85.61431884765625</v>
+        <v>180.819091796875</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="1"/>
-        <v>85.959014892578125</v>
+        <v>181.2786865234375</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" si="1"/>
-        <v>98.9508056640625</v>
+        <v>198.60107421875</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>97.702484130859375</v>
+        <v>196.9366455078125</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="1"/>
-        <v>99.47723388671875</v>
+        <v>199.302978515625</v>
       </c>
       <c r="K5" s="19">
         <f t="shared" si="1"/>
-        <v>94.555816650390625</v>
+        <v>192.7410888671875</v>
       </c>
       <c r="L5" s="19">
         <f t="shared" si="1"/>
-        <v>85.260009765625</v>
+        <v>180.3466796875</v>
       </c>
       <c r="M5" s="19">
         <f t="shared" si="1"/>
-        <v>87.007293701171875</v>
+        <v>182.6763916015625</v>
       </c>
       <c r="N5" s="19">
         <f t="shared" si="1"/>
-        <v>85.77178955078125</v>
+        <v>181.029052734375</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="1"/>
-        <v>88.826446533203125</v>
+        <v>185.1019287109375</v>
       </c>
       <c r="P5">
         <v>646</v>
       </c>
       <c r="Q5" s="19">
         <f>AVERAGE(D5:O5)</f>
-        <v>90.962600708007812</v>
+        <v>187.95013427734375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -6035,65 +6044,65 @@
         <v>70</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D6" s="19">
         <f>($C$6-$B$6)*D7+$B$6</f>
-        <v>97.705078125</v>
+        <v>196.5576171875</v>
       </c>
       <c r="E6" s="19">
-        <f t="shared" ref="E6:O6" si="2">($C$6-$B$6)*E7+$B$6</f>
-        <v>90.57891845703125</v>
+        <f>($C$6-$B$6)*E7+$B$6</f>
+        <v>185.86837768554688</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" si="2"/>
-        <v>90.4095458984375</v>
+        <f>($C$6-$B$6)*F7+$B$6</f>
+        <v>185.61431884765625</v>
       </c>
       <c r="G6" s="19">
-        <f t="shared" si="2"/>
-        <v>90.63934326171875</v>
+        <f t="shared" ref="G6:O6" si="2">($C$6-$B$6)*G7+$B$6</f>
+        <v>185.95901489257812</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="2"/>
-        <v>99.300537109375</v>
+        <v>198.9508056640625</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="2"/>
-        <v>98.46832275390625</v>
+        <v>197.70248413085938</v>
       </c>
       <c r="J6" s="19">
         <f t="shared" si="2"/>
-        <v>99.6514892578125</v>
+        <v>199.47723388671875</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" si="2"/>
-        <v>96.37054443359375</v>
+        <v>194.55581665039062</v>
       </c>
       <c r="L6" s="19">
         <f t="shared" si="2"/>
-        <v>90.17333984375</v>
+        <v>185.260009765625</v>
       </c>
       <c r="M6" s="19">
         <f t="shared" si="2"/>
-        <v>91.33819580078125</v>
+        <v>187.00729370117188</v>
       </c>
       <c r="N6" s="19">
         <f t="shared" si="2"/>
-        <v>90.5145263671875</v>
+        <v>185.77178955078125</v>
       </c>
       <c r="O6" s="19">
         <f t="shared" si="2"/>
-        <v>92.55096435546875</v>
+        <v>188.82644653320312</v>
       </c>
       <c r="P6">
         <v>692</v>
       </c>
       <c r="Q6" s="19">
         <f>AVERAGE(D6:O6)</f>
-        <v>93.975067138671875</v>
+        <v>190.96260070800781</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -6199,7 +6208,7 @@
       <c r="J14">
         <v>360</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="42">
         <v>30000</v>
       </c>
       <c r="L14">
@@ -6229,7 +6238,7 @@
       <c r="J15">
         <v>300</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="43">
         <v>40000</v>
       </c>
       <c r="L15">
@@ -6259,7 +6268,7 @@
       <c r="J16">
         <v>180</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="42">
         <v>50000</v>
       </c>
       <c r="L16">
@@ -10147,16 +10156,16 @@
         <f t="shared" si="9"/>
         <v>1.7274162413372096E-5</v>
       </c>
-      <c r="BX15" s="45" t="s">
+      <c r="BX15" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="BY15" s="45">
-        <v>1</v>
-      </c>
-      <c r="BZ15" s="45">
+      <c r="BY15" s="44">
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="44">
         <v>2</v>
       </c>
-      <c r="CA15" s="45">
+      <c r="CA15" s="44">
         <v>3</v>
       </c>
     </row>
@@ -10411,16 +10420,16 @@
         <f>BH15-BH16</f>
         <v>3.9510926324037854E-6</v>
       </c>
-      <c r="BX16" s="45">
-        <v>1</v>
-      </c>
-      <c r="BY16" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ16" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA16" s="45">
+      <c r="BX16" s="44">
+        <v>1</v>
+      </c>
+      <c r="BY16" s="44">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="44">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10455,16 +10464,16 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="BX17" s="45">
+      <c r="BX17" s="44">
         <v>2</v>
       </c>
-      <c r="BY17" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA17" s="45">
+      <c r="BY17" s="44">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="44">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10499,16 +10508,16 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="BX18" s="45">
+      <c r="BX18" s="44">
         <v>3</v>
       </c>
-      <c r="BY18" s="45">
+      <c r="BY18" s="44">
         <v>0.52107103986809999</v>
       </c>
-      <c r="BZ18" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA18" s="45">
+      <c r="BZ18" s="44">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10532,16 +10541,16 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="BX19" s="45">
+      <c r="BX19" s="44">
         <v>4</v>
       </c>
-      <c r="BY19" s="45">
+      <c r="BY19" s="44">
         <v>0.52741867875016668</v>
       </c>
-      <c r="BZ19" s="45">
+      <c r="BZ19" s="44">
         <v>0.51445545225044675</v>
       </c>
-      <c r="CA19" s="45">
+      <c r="CA19" s="44">
         <v>1.0127943667636097</v>
       </c>
     </row>
@@ -10605,16 +10614,16 @@
       <c r="BI20" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="BX20" s="45">
+      <c r="BX20" s="44">
         <v>5</v>
       </c>
-      <c r="BY20" s="45">
+      <c r="BY20" s="44">
         <v>0.12063566417218863</v>
       </c>
-      <c r="BZ20" s="45">
+      <c r="BZ20" s="44">
         <v>0.97806672476133794</v>
       </c>
-      <c r="CA20" s="45">
+      <c r="CA20" s="44">
         <v>0.33145717858559931</v>
       </c>
     </row>
@@ -10794,16 +10803,16 @@
       <c r="BU21" s="33">
         <v>12</v>
       </c>
-      <c r="BX21" s="45">
+      <c r="BX21" s="44">
         <v>6</v>
       </c>
-      <c r="BY21" s="45">
+      <c r="BY21" s="44">
         <v>2.759281014610937E-2</v>
       </c>
-      <c r="BZ21" s="45">
+      <c r="BZ21" s="44">
         <v>0.27043314516219485</v>
       </c>
-      <c r="CA21" s="45">
+      <c r="CA21" s="44">
         <v>7.4788793943809662E-2</v>
       </c>
     </row>
@@ -11015,16 +11024,16 @@
       <c r="BV22" s="17">
         <v>0</v>
       </c>
-      <c r="BX22" s="45">
+      <c r="BX22" s="44">
         <v>7</v>
       </c>
-      <c r="BY22" s="45">
+      <c r="BY22" s="44">
         <v>6.3112610767617205E-3</v>
       </c>
-      <c r="BZ22" s="45">
+      <c r="BZ22" s="44">
         <v>7.477412752198731E-2</v>
       </c>
-      <c r="CA22" s="45">
+      <c r="CA22" s="44">
         <v>1.6875071837145761E-2</v>
       </c>
     </row>
@@ -11269,16 +11278,16 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BX23" s="45">
+      <c r="BX23" s="44">
         <v>8</v>
       </c>
-      <c r="BY23" s="45">
+      <c r="BY23" s="44">
         <v>1.4435650507551578E-3</v>
       </c>
-      <c r="BZ23" s="45">
+      <c r="BZ23" s="44">
         <v>2.0674870098933651E-2</v>
       </c>
-      <c r="CA23" s="45">
+      <c r="CA23" s="44">
         <v>3.8076299201024177E-3</v>
       </c>
     </row>
@@ -11503,16 +11512,16 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BX24" s="45">
+      <c r="BX24" s="44">
         <v>9</v>
       </c>
-      <c r="BY24" s="45">
+      <c r="BY24" s="44">
         <v>3.3018441646071039E-4</v>
       </c>
-      <c r="BZ24" s="45">
+      <c r="BZ24" s="44">
         <v>5.7165528742824101E-3</v>
       </c>
-      <c r="CA24" s="45">
+      <c r="CA24" s="44">
         <v>8.5913978609242214E-4</v>
       </c>
     </row>
@@ -11750,16 +11759,16 @@
         <f t="shared" si="33"/>
         <v>0.51445545225044675</v>
       </c>
-      <c r="BX25" s="45">
+      <c r="BX25" s="44">
         <v>10</v>
       </c>
-      <c r="BY25" s="45">
+      <c r="BY25" s="44">
         <v>7.5522574349173865E-5</v>
       </c>
-      <c r="BZ25" s="45">
+      <c r="BZ25" s="44">
         <v>1.5806134020717177E-3</v>
       </c>
-      <c r="CA25" s="45">
+      <c r="CA25" s="44">
         <v>1.9385318099063298E-4</v>
       </c>
     </row>
@@ -11990,16 +11999,16 @@
         <f t="shared" si="33"/>
         <v>0.97806672476133794</v>
       </c>
-      <c r="BX26" s="45">
+      <c r="BX26" s="44">
         <v>11</v>
       </c>
-      <c r="BY26" s="45">
+      <c r="BY26" s="44">
         <v>1.7274162413372096E-5</v>
       </c>
-      <c r="BZ26" s="45">
+      <c r="BZ26" s="44">
         <v>4.3703588189458742E-4</v>
       </c>
-      <c r="CA26" s="45">
+      <c r="CA26" s="44">
         <v>4.3740327695829251E-5</v>
       </c>
     </row>
@@ -12231,16 +12240,16 @@
         <f t="shared" si="33"/>
         <v>0.27043314516219485</v>
       </c>
-      <c r="BX27" s="45">
+      <c r="BX27" s="44">
         <v>12</v>
       </c>
-      <c r="BY27" s="45">
+      <c r="BY27" s="44">
         <v>3.9510926324037854E-6</v>
       </c>
-      <c r="BZ27" s="45">
+      <c r="BZ27" s="44">
         <v>1.2083939172780056E-4</v>
       </c>
-      <c r="CA27" s="45">
+      <c r="CA27" s="44">
         <v>9.8694086789752333E-6</v>
       </c>
     </row>
@@ -20778,16 +20787,16 @@
         <f t="shared" si="18"/>
         <v>1.0920492063015708E-4</v>
       </c>
-      <c r="BI39" s="45" t="s">
+      <c r="BI39" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="BJ39" s="45">
-        <v>1</v>
-      </c>
-      <c r="BK39" s="45">
+      <c r="BJ39" s="44">
+        <v>1</v>
+      </c>
+      <c r="BK39" s="44">
         <v>2</v>
       </c>
-      <c r="BL39" s="45">
+      <c r="BL39" s="44">
         <v>3</v>
       </c>
     </row>
@@ -21012,16 +21021,16 @@
         <f>AS39-AS40</f>
         <v>3.4060080045028585E-5</v>
       </c>
-      <c r="BI40" s="45">
-        <v>1</v>
-      </c>
-      <c r="BJ40" s="45">
-        <v>0</v>
-      </c>
-      <c r="BK40" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="45">
+      <c r="BI40" s="44">
+        <v>1</v>
+      </c>
+      <c r="BJ40" s="44">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="44">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="44">
         <v>0</v>
       </c>
     </row>
@@ -21062,16 +21071,16 @@
       <c r="BD41" s="17"/>
       <c r="BE41" s="17"/>
       <c r="BF41" s="17"/>
-      <c r="BI41" s="45">
+      <c r="BI41" s="44">
         <v>2</v>
       </c>
-      <c r="BJ41" s="45">
-        <v>0</v>
-      </c>
-      <c r="BK41" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL41" s="45">
+      <c r="BJ41" s="44">
+        <v>0</v>
+      </c>
+      <c r="BK41" s="44">
+        <v>0</v>
+      </c>
+      <c r="BL41" s="44">
         <v>0</v>
       </c>
     </row>
@@ -21112,30 +21121,30 @@
       <c r="BD42" s="17"/>
       <c r="BE42" s="17"/>
       <c r="BF42" s="17"/>
-      <c r="BI42" s="45">
+      <c r="BI42" s="44">
         <v>3</v>
       </c>
-      <c r="BJ42" s="45">
+      <c r="BJ42" s="44">
         <v>0.12409792746505421</v>
       </c>
-      <c r="BK42" s="45">
+      <c r="BK42" s="44">
         <v>0.55003637736035449</v>
       </c>
-      <c r="BL42" s="45">
+      <c r="BL42" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="BI43" s="45">
+      <c r="BI43" s="44">
         <v>4</v>
       </c>
-      <c r="BJ43" s="45">
+      <c r="BJ43" s="44">
         <v>0.38038029463039424</v>
       </c>
-      <c r="BK43" s="45">
+      <c r="BK43" s="44">
         <v>0.63012108627052488</v>
       </c>
-      <c r="BL43" s="45">
+      <c r="BL43" s="44">
         <v>0.69461907869865414</v>
       </c>
     </row>
@@ -21299,16 +21308,16 @@
       <c r="BF44" s="33">
         <v>12</v>
       </c>
-      <c r="BI44" s="45">
+      <c r="BI44" s="44">
         <v>5</v>
       </c>
-      <c r="BJ44" s="45">
+      <c r="BJ44" s="44">
         <v>0.11863735817001286</v>
       </c>
-      <c r="BK44" s="45">
+      <c r="BK44" s="44">
         <v>0.34457260522308797</v>
       </c>
-      <c r="BL44" s="45">
+      <c r="BL44" s="44">
         <v>0.6695392883674407</v>
       </c>
     </row>
@@ -21520,16 +21529,16 @@
       <c r="BG45" s="17">
         <v>0</v>
       </c>
-      <c r="BI45" s="45">
+      <c r="BI45" s="44">
         <v>6</v>
       </c>
-      <c r="BJ45" s="45">
+      <c r="BJ45" s="44">
         <v>3.7001976580401053E-2</v>
       </c>
-      <c r="BK45" s="45">
+      <c r="BK45" s="44">
         <v>0.18842454705483758</v>
       </c>
-      <c r="BL45" s="45">
+      <c r="BL45" s="44">
         <v>0.22154656991450761</v>
       </c>
     </row>
@@ -21754,16 +21763,16 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BI46" s="45">
+      <c r="BI46" s="44">
         <v>7</v>
       </c>
-      <c r="BJ46" s="45">
+      <c r="BJ46" s="44">
         <v>1.1540599790619943E-2</v>
       </c>
-      <c r="BK46" s="45">
+      <c r="BK46" s="44">
         <v>0.10303723916134988</v>
       </c>
-      <c r="BL46" s="45">
+      <c r="BL46" s="44">
         <v>7.3308442825758879E-2</v>
       </c>
     </row>
@@ -21988,16 +21997,16 @@
         <f t="shared" si="57"/>
         <v>0.55003637736035449</v>
       </c>
-      <c r="BI47" s="45">
+      <c r="BI47" s="44">
         <v>8</v>
       </c>
-      <c r="BJ47" s="45">
+      <c r="BJ47" s="44">
         <v>3.599414297175807E-3</v>
       </c>
-      <c r="BK47" s="45">
+      <c r="BK47" s="44">
         <v>5.6344424439048302E-2</v>
       </c>
-      <c r="BL47" s="45">
+      <c r="BL47" s="44">
         <v>2.4257327890977454E-2</v>
       </c>
     </row>
@@ -22222,16 +22231,16 @@
         <f t="shared" si="57"/>
         <v>0.63012108627052488</v>
       </c>
-      <c r="BI48" s="45">
+      <c r="BI48" s="44">
         <v>9</v>
       </c>
-      <c r="BJ48" s="45">
+      <c r="BJ48" s="44">
         <v>1.1226265114263612E-3</v>
       </c>
-      <c r="BK48" s="45">
+      <c r="BK48" s="44">
         <v>3.0811133830908055E-2</v>
       </c>
-      <c r="BL48" s="45">
+      <c r="BL48" s="44">
         <v>8.026605582237778E-3</v>
       </c>
     </row>
@@ -22456,16 +22465,16 @@
         <f t="shared" si="57"/>
         <v>0.34457260522308797</v>
       </c>
-      <c r="BI49" s="45">
+      <c r="BI49" s="44">
         <v>10</v>
       </c>
-      <c r="BJ49" s="45">
+      <c r="BJ49" s="44">
         <v>3.5013760020530249E-4</v>
       </c>
-      <c r="BK49" s="45">
+      <c r="BK49" s="44">
         <v>1.6848623042961197E-2</v>
       </c>
-      <c r="BL49" s="45">
+      <c r="BL49" s="44">
         <v>2.6559560666519211E-3</v>
       </c>
     </row>
@@ -22690,16 +22699,16 @@
         <f t="shared" si="57"/>
         <v>0.18842454705483758</v>
       </c>
-      <c r="BI50" s="45">
+      <c r="BI50" s="44">
         <v>11</v>
       </c>
-      <c r="BJ50" s="45">
+      <c r="BJ50" s="44">
         <v>1.0920492063015708E-4</v>
       </c>
-      <c r="BK50" s="45">
+      <c r="BK50" s="44">
         <v>9.213425899926575E-3</v>
       </c>
-      <c r="BL50" s="45">
+      <c r="BL50" s="44">
         <v>8.7884007202210235E-4</v>
       </c>
     </row>
@@ -22924,16 +22933,16 @@
         <f t="shared" si="57"/>
         <v>0.10303723916134988</v>
       </c>
-      <c r="BI51" s="45">
+      <c r="BI51" s="44">
         <v>12</v>
       </c>
-      <c r="BJ51" s="45">
+      <c r="BJ51" s="44">
         <v>3.4060080045028585E-5</v>
       </c>
-      <c r="BK51" s="45">
+      <c r="BK51" s="44">
         <v>5.0382287381582902E-3</v>
       </c>
-      <c r="BL51" s="45">
+      <c r="BL51" s="44">
         <v>2.9080295487160512E-4</v>
       </c>
     </row>
@@ -31257,7 +31266,7 @@
         <f t="shared" si="38"/>
         <v>21975</v>
       </c>
-      <c r="E237" s="46">
+      <c r="E237" s="45">
         <f t="shared" si="37"/>
         <v>0.670623779296875</v>
       </c>
@@ -31270,7 +31279,7 @@
         <f t="shared" si="38"/>
         <v>16788</v>
       </c>
-      <c r="E238" s="46">
+      <c r="E238" s="45">
         <f t="shared" si="37"/>
         <v>0.5123291015625</v>
       </c>
@@ -31283,7 +31292,7 @@
         <f t="shared" si="38"/>
         <v>23117</v>
       </c>
-      <c r="E239" s="46">
+      <c r="E239" s="45">
         <f t="shared" si="37"/>
         <v>0.705474853515625</v>
       </c>
@@ -31296,7 +31305,7 @@
         <f t="shared" si="38"/>
         <v>4434</v>
       </c>
-      <c r="E240" s="46">
+      <c r="E240" s="45">
         <f t="shared" si="37"/>
         <v>0.13531494140625</v>
       </c>
@@ -31309,7 +31318,7 @@
         <f t="shared" si="38"/>
         <v>6579</v>
       </c>
-      <c r="E241" s="46">
+      <c r="E241" s="45">
         <f t="shared" si="37"/>
         <v>0.200775146484375</v>
       </c>
@@ -31322,7 +31331,7 @@
         <f t="shared" si="38"/>
         <v>5440</v>
       </c>
-      <c r="E242" s="46">
+      <c r="E242" s="45">
         <f t="shared" si="37"/>
         <v>0.166015625</v>
       </c>
@@ -31335,7 +31344,7 @@
         <f t="shared" si="38"/>
         <v>32137</v>
       </c>
-      <c r="E243" s="46">
+      <c r="E243" s="45">
         <f t="shared" si="37"/>
         <v>0.980743408203125</v>
       </c>
@@ -31348,7 +31357,7 @@
         <f t="shared" si="38"/>
         <v>6366</v>
       </c>
-      <c r="E244" s="46">
+      <c r="E244" s="45">
         <f t="shared" si="37"/>
         <v>0.19427490234375</v>
       </c>
@@ -31361,7 +31370,7 @@
         <f t="shared" si="38"/>
         <v>2895</v>
       </c>
-      <c r="E245" s="46">
+      <c r="E245" s="45">
         <f t="shared" si="37"/>
         <v>8.8348388671875E-2</v>
       </c>
@@ -31374,7 +31383,7 @@
         <f t="shared" si="38"/>
         <v>21420</v>
       </c>
-      <c r="E246" s="46">
+      <c r="E246" s="45">
         <f t="shared" si="37"/>
         <v>0.6536865234375</v>
       </c>
@@ -31387,7 +31396,7 @@
         <f t="shared" si="38"/>
         <v>17541</v>
       </c>
-      <c r="E247" s="46">
+      <c r="E247" s="45">
         <f t="shared" si="37"/>
         <v>0.535308837890625</v>
       </c>
@@ -31400,7 +31409,7 @@
         <f t="shared" si="38"/>
         <v>18730</v>
       </c>
-      <c r="E248" s="46">
+      <c r="E248" s="45">
         <f t="shared" si="37"/>
         <v>0.57159423828125</v>
       </c>
@@ -31413,7 +31422,7 @@
         <f t="shared" si="38"/>
         <v>1707</v>
       </c>
-      <c r="E249" s="47">
+      <c r="E249" s="46">
         <f t="shared" si="37"/>
         <v>5.2093505859375E-2</v>
       </c>
@@ -31426,7 +31435,7 @@
         <f t="shared" si="38"/>
         <v>10456</v>
       </c>
-      <c r="E250" s="47">
+      <c r="E250" s="46">
         <f t="shared" si="37"/>
         <v>0.319091796875</v>
       </c>
@@ -31439,7 +31448,7 @@
         <f t="shared" si="38"/>
         <v>27457</v>
       </c>
-      <c r="E251" s="47">
+      <c r="E251" s="46">
         <f t="shared" si="37"/>
         <v>0.837921142578125</v>
       </c>
@@ -31452,7 +31461,7 @@
         <f t="shared" si="38"/>
         <v>11830</v>
       </c>
-      <c r="E252" s="47">
+      <c r="E252" s="46">
         <f t="shared" si="37"/>
         <v>0.36102294921875</v>
       </c>
@@ -31465,7 +31474,7 @@
         <f t="shared" si="38"/>
         <v>10183</v>
       </c>
-      <c r="E253" s="47">
+      <c r="E253" s="46">
         <f t="shared" si="37"/>
         <v>0.310760498046875</v>
       </c>
@@ -31478,7 +31487,7 @@
         <f t="shared" si="38"/>
         <v>196</v>
       </c>
-      <c r="E254" s="47">
+      <c r="E254" s="46">
         <f t="shared" si="37"/>
         <v>5.9814453125E-3</v>
       </c>
@@ -31491,7 +31500,7 @@
         <f t="shared" si="38"/>
         <v>28093</v>
       </c>
-      <c r="E255" s="47">
+      <c r="E255" s="46">
         <f t="shared" si="37"/>
         <v>0.857330322265625</v>
       </c>
@@ -31504,7 +31513,7 @@
         <f t="shared" si="38"/>
         <v>5122</v>
       </c>
-      <c r="E256" s="47">
+      <c r="E256" s="46">
         <f t="shared" si="37"/>
         <v>0.15631103515625</v>
       </c>
@@ -31517,7 +31526,7 @@
         <f t="shared" si="38"/>
         <v>19107</v>
       </c>
-      <c r="E257" s="47">
+      <c r="E257" s="46">
         <f t="shared" si="37"/>
         <v>0.583099365234375</v>
       </c>
@@ -31530,7 +31539,7 @@
         <f t="shared" si="38"/>
         <v>1904</v>
       </c>
-      <c r="E258" s="47">
+      <c r="E258" s="46">
         <f t="shared" si="37"/>
         <v>5.810546875E-2</v>
       </c>
@@ -31543,7 +31552,7 @@
         <f t="shared" si="38"/>
         <v>2041</v>
       </c>
-      <c r="E259" s="47">
+      <c r="E259" s="46">
         <f t="shared" si="37"/>
         <v>6.2286376953125E-2</v>
       </c>
@@ -31556,7 +31565,7 @@
         <f t="shared" si="38"/>
         <v>1678</v>
       </c>
-      <c r="E260" s="47">
+      <c r="E260" s="46">
         <f t="shared" ref="E260:E323" si="39">D260/$B$1</f>
         <v>5.120849609375E-2</v>
       </c>
@@ -42922,15 +42931,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346E7822-C79E-9644-BAD4-9EB002AC4001}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -42938,68 +42947,132 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="42">
-        <v>0.90066641993581609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="47">
+        <f>D2/C2</f>
+        <v>0.97150285680946646</v>
+      </c>
+      <c r="C2">
+        <f>SQRT(3)*416</f>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="42">
-        <v>1.8013328398716322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="47">
+        <f t="shared" ref="B3:B9" si="0">D3/C3</f>
+        <v>0.55514448960540941</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="1">SQRT(3)*416</f>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="42">
-        <v>0.90066641993581609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="47">
+        <f t="shared" si="0"/>
+        <v>0.83271673440811411</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="42">
-        <v>0.60044427995721072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="47">
+        <f t="shared" si="0"/>
+        <v>1.3878612240135235</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="42">
-        <v>1.1258330249197701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="47">
+        <f t="shared" si="0"/>
+        <v>0.69393061200676176</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="42">
-        <v>1.1258330249197701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="47">
+        <f t="shared" si="0"/>
+        <v>0.83271673440811411</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
-        <v>1.1258330249197701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="47">
+        <f t="shared" si="0"/>
+        <v>0.83271673440811411</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="42">
-        <v>1.1258330249197701</v>
+      <c r="B9" s="47">
+        <f t="shared" si="0"/>
+        <v>0.83271673440811411</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>720.5331359486529</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -43293,8 +43366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4363D9C-5B8F-ED4B-A78C-A1A7FDFDC253}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43434,8 +43507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B832352C-AD73-B94A-9BD9-A665165787C5}">
   <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43498,13 +43571,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
         <v>138</v>
@@ -43545,13 +43618,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O3">
         <v>400</v>
@@ -43560,7 +43633,7 @@
         <v>800</v>
       </c>
       <c r="Q3">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="R3">
         <v>700</v>
@@ -43589,13 +43662,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
         <v>78</v>
@@ -43633,13 +43706,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -43659,7 +43732,7 @@
       </c>
       <c r="P5" s="18">
         <f>($R$3-$Q$3)*M5+$Q$3</f>
-        <v>468.6004638671875</v>
+        <v>538.02032470703125</v>
       </c>
       <c r="Q5" s="18">
         <f>($T$3-$S$3)*N5+$S$3</f>
@@ -43680,13 +43753,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -43706,7 +43779,7 @@
       </c>
       <c r="P6" s="18">
         <f t="shared" ref="P6:P16" si="1">($R$3-$Q$3)*M6+$Q$3</f>
-        <v>508.837890625</v>
+        <v>566.1865234375</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" ref="Q6:Q16" si="2">($T$3-$S$3)*N6+$S$3</f>
@@ -43727,13 +43800,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -43753,7 +43826,7 @@
       </c>
       <c r="P7" s="18">
         <f t="shared" si="1"/>
-        <v>383.9752197265625</v>
+        <v>478.78265380859375</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="2"/>
@@ -43774,13 +43847,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -43800,7 +43873,7 @@
       </c>
       <c r="P8" s="18">
         <f t="shared" si="1"/>
-        <v>415.545654296875</v>
+        <v>500.8819580078125</v>
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="2"/>
@@ -43821,13 +43894,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -43847,7 +43920,7 @@
       </c>
       <c r="P9" s="18">
         <f t="shared" si="1"/>
-        <v>353.7933349609375</v>
+        <v>457.65533447265625</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="2"/>
@@ -43868,13 +43941,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -43894,7 +43967,7 @@
       </c>
       <c r="P10" s="18">
         <f t="shared" si="1"/>
-        <v>615.95458984375</v>
+        <v>641.168212890625</v>
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="2"/>
@@ -43915,13 +43988,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -43941,7 +44014,7 @@
       </c>
       <c r="P11" s="18">
         <f t="shared" si="1"/>
-        <v>508.9141845703125</v>
+        <v>566.23992919921875</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="2"/>
@@ -43962,13 +44035,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -43988,7 +44061,7 @@
       </c>
       <c r="P12" s="18">
         <f t="shared" si="1"/>
-        <v>248.736572265625</v>
+        <v>384.1156005859375</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="2"/>
@@ -44009,13 +44082,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -44035,7 +44108,7 @@
       </c>
       <c r="P13" s="18">
         <f t="shared" si="1"/>
-        <v>339.5721435546875</v>
+        <v>447.70050048828125</v>
       </c>
       <c r="Q13" s="18">
         <f t="shared" si="2"/>
@@ -44056,13 +44129,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -44082,7 +44155,7 @@
       </c>
       <c r="P14" s="18">
         <f t="shared" si="1"/>
-        <v>624.4384765625</v>
+        <v>647.10693359375</v>
       </c>
       <c r="Q14" s="18">
         <f t="shared" si="2"/>
@@ -44103,13 +44176,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -44129,7 +44202,7 @@
       </c>
       <c r="P15" s="18">
         <f t="shared" si="1"/>
-        <v>570.3765869140625</v>
+        <v>609.26361083984375</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="2"/>
@@ -44150,13 +44223,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>12</v>
@@ -44176,7 +44249,7 @@
       </c>
       <c r="P16" s="18">
         <f t="shared" si="1"/>
-        <v>600.482177734375</v>
+        <v>630.3375244140625</v>
       </c>
       <c r="Q16" s="18">
         <f t="shared" si="2"/>
@@ -44197,13 +44270,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" s="18">
+        <f>MIN(O5:O16)</f>
+        <v>444.93408203125</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" ref="P17:Q17" si="3">MIN(P5:P16)</f>
+        <v>384.1156005859375</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="3"/>
+        <v>217.669677734375</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
@@ -44220,13 +44308,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" s="18">
+        <f>AVERAGE(O5:O16)</f>
+        <v>607.403564453125</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" ref="P18:Q18" si="4">AVERAGE(P5:P16)</f>
+        <v>538.95492553710938</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="4"/>
+        <v>290.24149576822919</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
@@ -44243,13 +44346,28 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>206</v>
+      </c>
+      <c r="O19" s="18">
+        <f>MAX(O5:O16)</f>
+        <v>744.970703125</v>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" ref="P19:Q19" si="5">MAX(P5:P16)</f>
+        <v>647.10693359375</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="5"/>
+        <v>396.148681640625</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.2">
@@ -44266,13 +44384,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N20" s="48" t="s">
         <v>193</v>
@@ -44313,13 +44431,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H21">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -44390,13 +44508,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -44467,13 +44585,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G23">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -44501,11 +44619,11 @@
         <v>200</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:V34" si="3">O23/4</f>
+        <f t="shared" ref="U23:V34" si="6">O23/4</f>
         <v>75</v>
       </c>
       <c r="V23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W23" s="19">
@@ -44513,11 +44631,11 @@
         <v>698.22998046875</v>
       </c>
       <c r="X23" s="19">
-        <f t="shared" ref="X23:Y23" si="4">R23</f>
+        <f t="shared" ref="X23:Y23" si="7">R23</f>
         <v>468.6004638671875</v>
       </c>
       <c r="Y23" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>334.124755859375</v>
       </c>
       <c r="Z23">
@@ -44525,11 +44643,11 @@
         <v>400</v>
       </c>
       <c r="AA23">
-        <f t="shared" ref="AA23:AB34" si="5">O23/2</f>
+        <f t="shared" ref="AA23:AB34" si="8">O23/2</f>
         <v>150</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="AC23">
@@ -44537,11 +44655,11 @@
         <v>698.22998046875</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AE23" si="6">R23</f>
+        <f t="shared" ref="AD23:AE23" si="9">R23</f>
         <v>468.6004638671875</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>334.124755859375</v>
       </c>
     </row>
@@ -44559,13 +44677,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G24">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -44589,51 +44707,51 @@
         <v>302.4658203125</v>
       </c>
       <c r="T24">
-        <f t="shared" ref="T24:T34" si="7">N24/4</f>
+        <f t="shared" ref="T24:T34" si="10">N24/4</f>
         <v>200</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W24" s="19">
-        <f t="shared" ref="W24:W34" si="8">Q24</f>
+        <f t="shared" ref="W24:W34" si="11">Q24</f>
         <v>741.552734375</v>
       </c>
       <c r="X24" s="19">
-        <f t="shared" ref="X24:X34" si="9">R24</f>
+        <f t="shared" ref="X24:X34" si="12">R24</f>
         <v>508.837890625</v>
       </c>
       <c r="Y24" s="19">
-        <f t="shared" ref="Y24:Y34" si="10">S24</f>
+        <f t="shared" ref="Y24:Y34" si="13">S24</f>
         <v>302.4658203125</v>
       </c>
       <c r="Z24">
-        <f t="shared" ref="Z24:Z34" si="11">N24/2</f>
+        <f t="shared" ref="Z24:Z34" si="14">N24/2</f>
         <v>400</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="AC24">
-        <f t="shared" ref="AC24:AC34" si="12">Q24</f>
+        <f t="shared" ref="AC24:AC34" si="15">Q24</f>
         <v>741.552734375</v>
       </c>
       <c r="AD24">
-        <f t="shared" ref="AD24:AD34" si="13">R24</f>
+        <f t="shared" ref="AD24:AD34" si="16">R24</f>
         <v>508.837890625</v>
       </c>
       <c r="AE24">
-        <f t="shared" ref="AE24:AE34" si="14">S24</f>
+        <f t="shared" ref="AE24:AE34" si="17">S24</f>
         <v>302.4658203125</v>
       </c>
     </row>
@@ -44651,13 +44769,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G25">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -44681,51 +44799,51 @@
         <v>341.094970703125</v>
       </c>
       <c r="T25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W25" s="19">
+        <f t="shared" si="11"/>
+        <v>667.63916015625</v>
+      </c>
+      <c r="X25" s="19">
+        <f t="shared" si="12"/>
+        <v>383.9752197265625</v>
+      </c>
+      <c r="Y25" s="19">
+        <f t="shared" si="13"/>
+        <v>341.094970703125</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="15"/>
         <v>667.63916015625</v>
       </c>
-      <c r="X25" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD25">
+        <f t="shared" si="16"/>
         <v>383.9752197265625</v>
       </c>
-      <c r="Y25" s="19">
-        <f t="shared" si="10"/>
-        <v>341.094970703125</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="12"/>
-        <v>667.63916015625</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="13"/>
-        <v>383.9752197265625</v>
-      </c>
       <c r="AE25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>341.094970703125</v>
       </c>
     </row>
@@ -44749,7 +44867,7 @@
         <v>50</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M26">
         <v>4</v>
@@ -44773,51 +44891,51 @@
         <v>227.06298828125</v>
       </c>
       <c r="T26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W26" s="19">
+        <f t="shared" si="11"/>
+        <v>486.8408203125</v>
+      </c>
+      <c r="X26" s="19">
+        <f t="shared" si="12"/>
+        <v>415.545654296875</v>
+      </c>
+      <c r="Y26" s="19">
+        <f t="shared" si="13"/>
+        <v>227.06298828125</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="15"/>
         <v>486.8408203125</v>
       </c>
-      <c r="X26" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD26">
+        <f t="shared" si="16"/>
         <v>415.545654296875</v>
       </c>
-      <c r="Y26" s="19">
-        <f t="shared" si="10"/>
-        <v>227.06298828125</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="12"/>
-        <v>486.8408203125</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="13"/>
-        <v>415.545654296875</v>
-      </c>
       <c r="AE26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>227.06298828125</v>
       </c>
     </row>
@@ -44841,7 +44959,7 @@
         <v>50</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -44865,51 +44983,51 @@
         <v>240.155029296875</v>
       </c>
       <c r="T27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W27" s="19">
+        <f t="shared" si="11"/>
+        <v>489.97802734375</v>
+      </c>
+      <c r="X27" s="19">
+        <f t="shared" si="12"/>
+        <v>353.7933349609375</v>
+      </c>
+      <c r="Y27" s="19">
+        <f t="shared" si="13"/>
+        <v>240.155029296875</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="15"/>
         <v>489.97802734375</v>
       </c>
-      <c r="X27" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD27">
+        <f t="shared" si="16"/>
         <v>353.7933349609375</v>
       </c>
-      <c r="Y27" s="19">
-        <f t="shared" si="10"/>
-        <v>240.155029296875</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="12"/>
-        <v>489.97802734375</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="13"/>
-        <v>353.7933349609375</v>
-      </c>
       <c r="AE27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>240.155029296875</v>
       </c>
     </row>
@@ -44933,7 +45051,7 @@
         <v>50</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M28">
         <v>6</v>
@@ -44957,51 +45075,51 @@
         <v>233.203125</v>
       </c>
       <c r="T28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W28" s="19">
+        <f t="shared" si="11"/>
+        <v>688.96484375</v>
+      </c>
+      <c r="X28" s="19">
+        <f t="shared" si="12"/>
+        <v>615.95458984375</v>
+      </c>
+      <c r="Y28" s="19">
+        <f t="shared" si="13"/>
+        <v>233.203125</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="15"/>
         <v>688.96484375</v>
       </c>
-      <c r="X28" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD28">
+        <f t="shared" si="16"/>
         <v>615.95458984375</v>
       </c>
-      <c r="Y28" s="19">
-        <f t="shared" si="10"/>
-        <v>233.203125</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="12"/>
-        <v>688.96484375</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="13"/>
-        <v>615.95458984375</v>
-      </c>
       <c r="AE28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>233.203125</v>
       </c>
     </row>
@@ -45025,7 +45143,7 @@
         <v>50</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -45049,51 +45167,51 @@
         <v>396.148681640625</v>
       </c>
       <c r="T29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W29" s="19">
+        <f t="shared" si="11"/>
+        <v>444.93408203125</v>
+      </c>
+      <c r="X29" s="19">
+        <f t="shared" si="12"/>
+        <v>508.9141845703125</v>
+      </c>
+      <c r="Y29" s="19">
+        <f t="shared" si="13"/>
+        <v>396.148681640625</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA29">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="15"/>
         <v>444.93408203125</v>
       </c>
-      <c r="X29" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD29">
+        <f t="shared" si="16"/>
         <v>508.9141845703125</v>
       </c>
-      <c r="Y29" s="19">
-        <f t="shared" si="10"/>
-        <v>396.148681640625</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="12"/>
-        <v>444.93408203125</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="13"/>
-        <v>508.9141845703125</v>
-      </c>
       <c r="AE29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>396.148681640625</v>
       </c>
     </row>
@@ -45117,7 +45235,7 @@
         <v>50</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M30">
         <v>8</v>
@@ -45141,51 +45259,51 @@
         <v>238.85498046875</v>
       </c>
       <c r="T30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W30" s="19">
+        <f t="shared" si="11"/>
+        <v>533.8623046875</v>
+      </c>
+      <c r="X30" s="19">
+        <f t="shared" si="12"/>
+        <v>248.736572265625</v>
+      </c>
+      <c r="Y30" s="19">
+        <f t="shared" si="13"/>
+        <v>238.85498046875</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="15"/>
         <v>533.8623046875</v>
       </c>
-      <c r="X30" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD30">
+        <f t="shared" si="16"/>
         <v>248.736572265625</v>
       </c>
-      <c r="Y30" s="19">
-        <f t="shared" si="10"/>
-        <v>238.85498046875</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="12"/>
-        <v>533.8623046875</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="13"/>
-        <v>248.736572265625</v>
-      </c>
       <c r="AE30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>238.85498046875</v>
       </c>
     </row>
@@ -45209,7 +45327,7 @@
         <v>50</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M31">
         <v>9</v>
@@ -45233,51 +45351,51 @@
         <v>217.669677734375</v>
       </c>
       <c r="T31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W31" s="19">
+        <f t="shared" si="11"/>
+        <v>499.69482421875</v>
+      </c>
+      <c r="X31" s="19">
+        <f t="shared" si="12"/>
+        <v>339.5721435546875</v>
+      </c>
+      <c r="Y31" s="19">
+        <f t="shared" si="13"/>
+        <v>217.669677734375</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="15"/>
         <v>499.69482421875</v>
       </c>
-      <c r="X31" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD31">
+        <f t="shared" si="16"/>
         <v>339.5721435546875</v>
       </c>
-      <c r="Y31" s="19">
-        <f t="shared" si="10"/>
-        <v>217.669677734375</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="12"/>
-        <v>499.69482421875</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="13"/>
-        <v>339.5721435546875</v>
-      </c>
       <c r="AE31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>217.669677734375</v>
       </c>
     </row>
@@ -45301,7 +45419,7 @@
         <v>50</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -45325,51 +45443,51 @@
         <v>330.7373046875</v>
       </c>
       <c r="T32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W32" s="19">
+        <f t="shared" si="11"/>
+        <v>744.970703125</v>
+      </c>
+      <c r="X32" s="19">
+        <f t="shared" si="12"/>
+        <v>624.4384765625</v>
+      </c>
+      <c r="Y32" s="19">
+        <f t="shared" si="13"/>
+        <v>330.7373046875</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="15"/>
         <v>744.970703125</v>
       </c>
-      <c r="X32" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD32">
+        <f t="shared" si="16"/>
         <v>624.4384765625</v>
       </c>
-      <c r="Y32" s="19">
-        <f t="shared" si="10"/>
-        <v>330.7373046875</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="12"/>
-        <v>744.970703125</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="13"/>
-        <v>624.4384765625</v>
-      </c>
       <c r="AE32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>330.7373046875</v>
       </c>
     </row>
@@ -45393,7 +45511,7 @@
         <v>50</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M33">
         <v>11</v>
@@ -45417,51 +45535,51 @@
         <v>307.061767578125</v>
       </c>
       <c r="T33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W33" s="19">
+        <f t="shared" si="11"/>
+        <v>608.94775390625</v>
+      </c>
+      <c r="X33" s="19">
+        <f t="shared" si="12"/>
+        <v>570.3765869140625</v>
+      </c>
+      <c r="Y33" s="19">
+        <f t="shared" si="13"/>
+        <v>307.061767578125</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA33">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="15"/>
         <v>608.94775390625</v>
       </c>
-      <c r="X33" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD33">
+        <f t="shared" si="16"/>
         <v>570.3765869140625</v>
       </c>
-      <c r="Y33" s="19">
-        <f t="shared" si="10"/>
-        <v>307.061767578125</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="12"/>
-        <v>608.94775390625</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="13"/>
-        <v>570.3765869140625</v>
-      </c>
       <c r="AE33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>307.061767578125</v>
       </c>
     </row>
@@ -45485,7 +45603,7 @@
         <v>50</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M34">
         <v>12</v>
@@ -45509,51 +45627,51 @@
         <v>314.31884765625</v>
       </c>
       <c r="T34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="V34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W34" s="19">
+        <f t="shared" si="11"/>
+        <v>683.2275390625</v>
+      </c>
+      <c r="X34" s="19">
+        <f t="shared" si="12"/>
+        <v>600.482177734375</v>
+      </c>
+      <c r="Y34" s="19">
+        <f t="shared" si="13"/>
+        <v>314.31884765625</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA34">
         <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="15"/>
         <v>683.2275390625</v>
       </c>
-      <c r="X34" s="19">
-        <f t="shared" si="9"/>
+      <c r="AD34">
+        <f t="shared" si="16"/>
         <v>600.482177734375</v>
       </c>
-      <c r="Y34" s="19">
-        <f t="shared" si="10"/>
-        <v>314.31884765625</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="12"/>
-        <v>683.2275390625</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="13"/>
-        <v>600.482177734375</v>
-      </c>
       <c r="AE34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>314.31884765625</v>
       </c>
     </row>
@@ -45577,7 +45695,7 @@
         <v>50</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
@@ -45600,7 +45718,7 @@
         <v>50</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
@@ -45623,7 +45741,7 @@
         <v>50</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.2">
@@ -45640,13 +45758,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="19">
-        <v>698.22998046875</v>
+        <f>$O$17</f>
+        <v>444.93408203125</v>
       </c>
       <c r="G38" s="19">
-        <v>698.22998046875</v>
+        <f>F38</f>
+        <v>444.93408203125</v>
       </c>
       <c r="H38" s="19">
-        <v>698.22998046875</v>
+        <f>F38</f>
+        <v>444.93408203125</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
@@ -45663,13 +45784,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="19">
-        <v>741.552734375</v>
+        <f t="shared" ref="F39:F41" si="18">$O$17</f>
+        <v>444.93408203125</v>
       </c>
       <c r="G39" s="19">
-        <v>741.552734375</v>
+        <f t="shared" ref="G39:G73" si="19">F39</f>
+        <v>444.93408203125</v>
       </c>
       <c r="H39" s="19">
-        <v>741.552734375</v>
+        <f t="shared" ref="H39:H73" si="20">F39</f>
+        <v>444.93408203125</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
@@ -45686,13 +45810,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="19">
-        <v>667.63916015625</v>
+        <f t="shared" si="18"/>
+        <v>444.93408203125</v>
       </c>
       <c r="G40" s="19">
-        <v>667.63916015625</v>
+        <f t="shared" si="19"/>
+        <v>444.93408203125</v>
       </c>
       <c r="H40" s="19">
-        <v>667.63916015625</v>
+        <f t="shared" si="20"/>
+        <v>444.93408203125</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.2">
@@ -45709,13 +45836,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="19">
-        <v>486.8408203125</v>
+        <f t="shared" si="18"/>
+        <v>444.93408203125</v>
       </c>
       <c r="G41" s="19">
-        <v>486.8408203125</v>
+        <f t="shared" si="19"/>
+        <v>444.93408203125</v>
       </c>
       <c r="H41" s="19">
-        <v>486.8408203125</v>
+        <f t="shared" si="20"/>
+        <v>444.93408203125</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
@@ -45732,13 +45862,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="19">
-        <v>489.97802734375</v>
+        <f>$O$18</f>
+        <v>607.403564453125</v>
       </c>
       <c r="G42" s="19">
-        <v>489.97802734375</v>
+        <f t="shared" si="19"/>
+        <v>607.403564453125</v>
       </c>
       <c r="H42" s="19">
-        <v>489.97802734375</v>
+        <f t="shared" si="20"/>
+        <v>607.403564453125</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.2">
@@ -45755,13 +45888,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="19">
-        <v>688.96484375</v>
+        <f t="shared" ref="F43:F45" si="21">$O$18</f>
+        <v>607.403564453125</v>
       </c>
       <c r="G43" s="19">
-        <v>688.96484375</v>
+        <f t="shared" si="19"/>
+        <v>607.403564453125</v>
       </c>
       <c r="H43" s="19">
-        <v>688.96484375</v>
+        <f t="shared" si="20"/>
+        <v>607.403564453125</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.2">
@@ -45778,13 +45914,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="19">
-        <v>444.93408203125</v>
+        <f t="shared" si="21"/>
+        <v>607.403564453125</v>
       </c>
       <c r="G44" s="19">
-        <v>444.93408203125</v>
+        <f t="shared" si="19"/>
+        <v>607.403564453125</v>
       </c>
       <c r="H44" s="19">
-        <v>444.93408203125</v>
+        <f t="shared" si="20"/>
+        <v>607.403564453125</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
@@ -45801,13 +45940,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="19">
-        <v>533.8623046875</v>
+        <f t="shared" si="21"/>
+        <v>607.403564453125</v>
       </c>
       <c r="G45" s="19">
-        <v>533.8623046875</v>
+        <f t="shared" si="19"/>
+        <v>607.403564453125</v>
       </c>
       <c r="H45" s="19">
-        <v>533.8623046875</v>
+        <f t="shared" si="20"/>
+        <v>607.403564453125</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
@@ -45824,13 +45966,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="19">
-        <v>499.69482421875</v>
+        <f>$O$19</f>
+        <v>744.970703125</v>
       </c>
       <c r="G46" s="19">
-        <v>499.69482421875</v>
+        <f t="shared" si="19"/>
+        <v>744.970703125</v>
       </c>
       <c r="H46" s="19">
-        <v>499.69482421875</v>
+        <f t="shared" si="20"/>
+        <v>744.970703125</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.2">
@@ -45847,12 +45992,15 @@
         <v>0</v>
       </c>
       <c r="F47" s="19">
+        <f t="shared" ref="F47:F49" si="22">$O$19</f>
         <v>744.970703125</v>
       </c>
       <c r="G47" s="19">
+        <f t="shared" si="19"/>
         <v>744.970703125</v>
       </c>
       <c r="H47" s="19">
+        <f t="shared" si="20"/>
         <v>744.970703125</v>
       </c>
     </row>
@@ -45870,13 +46018,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="19">
-        <v>608.94775390625</v>
+        <f t="shared" si="22"/>
+        <v>744.970703125</v>
       </c>
       <c r="G48" s="19">
-        <v>608.94775390625</v>
+        <f t="shared" si="19"/>
+        <v>744.970703125</v>
       </c>
       <c r="H48" s="19">
-        <v>608.94775390625</v>
+        <f t="shared" si="20"/>
+        <v>744.970703125</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -45893,13 +46044,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="19">
-        <v>683.2275390625</v>
+        <f t="shared" si="22"/>
+        <v>744.970703125</v>
       </c>
       <c r="G49" s="19">
-        <v>683.2275390625</v>
+        <f t="shared" si="19"/>
+        <v>744.970703125</v>
       </c>
       <c r="H49" s="19">
-        <v>683.2275390625</v>
+        <f t="shared" si="20"/>
+        <v>744.970703125</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -45916,13 +46070,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="19">
-        <v>468.6004638671875</v>
+        <f>$P$17</f>
+        <v>384.1156005859375</v>
       </c>
       <c r="G50" s="19">
-        <v>468.6004638671875</v>
+        <f t="shared" si="19"/>
+        <v>384.1156005859375</v>
       </c>
       <c r="H50" s="19">
-        <v>468.6004638671875</v>
+        <f t="shared" si="20"/>
+        <v>384.1156005859375</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -45939,13 +46096,16 @@
         <v>0</v>
       </c>
       <c r="F51" s="19">
-        <v>508.837890625</v>
+        <f t="shared" ref="F51:F53" si="23">$P$17</f>
+        <v>384.1156005859375</v>
       </c>
       <c r="G51" s="19">
-        <v>508.837890625</v>
+        <f t="shared" si="19"/>
+        <v>384.1156005859375</v>
       </c>
       <c r="H51" s="19">
-        <v>508.837890625</v>
+        <f t="shared" si="20"/>
+        <v>384.1156005859375</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -45962,13 +46122,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="19">
-        <v>383.9752197265625</v>
+        <f t="shared" si="23"/>
+        <v>384.1156005859375</v>
       </c>
       <c r="G52" s="19">
-        <v>383.9752197265625</v>
+        <f t="shared" si="19"/>
+        <v>384.1156005859375</v>
       </c>
       <c r="H52" s="19">
-        <v>383.9752197265625</v>
+        <f t="shared" si="20"/>
+        <v>384.1156005859375</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -45985,13 +46148,16 @@
         <v>0</v>
       </c>
       <c r="F53" s="19">
-        <v>415.545654296875</v>
+        <f t="shared" si="23"/>
+        <v>384.1156005859375</v>
       </c>
       <c r="G53" s="19">
-        <v>415.545654296875</v>
+        <f t="shared" si="19"/>
+        <v>384.1156005859375</v>
       </c>
       <c r="H53" s="19">
-        <v>415.545654296875</v>
+        <f t="shared" si="20"/>
+        <v>384.1156005859375</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -46008,13 +46174,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="19">
-        <v>353.7933349609375</v>
+        <f>$P$18</f>
+        <v>538.95492553710938</v>
       </c>
       <c r="G54" s="19">
-        <v>353.7933349609375</v>
+        <f t="shared" si="19"/>
+        <v>538.95492553710938</v>
       </c>
       <c r="H54" s="19">
-        <v>353.7933349609375</v>
+        <f t="shared" si="20"/>
+        <v>538.95492553710938</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -46031,13 +46200,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="19">
-        <v>615.95458984375</v>
+        <f t="shared" ref="F55:F57" si="24">$P$18</f>
+        <v>538.95492553710938</v>
       </c>
       <c r="G55" s="19">
-        <v>615.95458984375</v>
+        <f t="shared" si="19"/>
+        <v>538.95492553710938</v>
       </c>
       <c r="H55" s="19">
-        <v>615.95458984375</v>
+        <f t="shared" si="20"/>
+        <v>538.95492553710938</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -46054,13 +46226,16 @@
         <v>0</v>
       </c>
       <c r="F56" s="19">
-        <v>508.9141845703125</v>
+        <f t="shared" si="24"/>
+        <v>538.95492553710938</v>
       </c>
       <c r="G56" s="19">
-        <v>508.9141845703125</v>
+        <f t="shared" si="19"/>
+        <v>538.95492553710938</v>
       </c>
       <c r="H56" s="19">
-        <v>508.9141845703125</v>
+        <f t="shared" si="20"/>
+        <v>538.95492553710938</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -46077,13 +46252,16 @@
         <v>0</v>
       </c>
       <c r="F57" s="19">
-        <v>248.736572265625</v>
+        <f t="shared" si="24"/>
+        <v>538.95492553710938</v>
       </c>
       <c r="G57" s="19">
-        <v>248.736572265625</v>
+        <f t="shared" si="19"/>
+        <v>538.95492553710938</v>
       </c>
       <c r="H57" s="19">
-        <v>248.736572265625</v>
+        <f t="shared" si="20"/>
+        <v>538.95492553710938</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -46100,13 +46278,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="19">
-        <v>339.5721435546875</v>
+        <f>$P$19</f>
+        <v>647.10693359375</v>
       </c>
       <c r="G58" s="19">
-        <v>339.5721435546875</v>
+        <f t="shared" si="19"/>
+        <v>647.10693359375</v>
       </c>
       <c r="H58" s="19">
-        <v>339.5721435546875</v>
+        <f t="shared" si="20"/>
+        <v>647.10693359375</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -46123,13 +46304,16 @@
         <v>0</v>
       </c>
       <c r="F59" s="19">
-        <v>624.4384765625</v>
+        <f t="shared" ref="F59:F61" si="25">$P$19</f>
+        <v>647.10693359375</v>
       </c>
       <c r="G59" s="19">
-        <v>624.4384765625</v>
+        <f t="shared" si="19"/>
+        <v>647.10693359375</v>
       </c>
       <c r="H59" s="19">
-        <v>624.4384765625</v>
+        <f t="shared" si="20"/>
+        <v>647.10693359375</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -46146,13 +46330,16 @@
         <v>0</v>
       </c>
       <c r="F60" s="19">
-        <v>570.3765869140625</v>
+        <f t="shared" si="25"/>
+        <v>647.10693359375</v>
       </c>
       <c r="G60" s="19">
-        <v>570.3765869140625</v>
+        <f t="shared" si="19"/>
+        <v>647.10693359375</v>
       </c>
       <c r="H60" s="19">
-        <v>570.3765869140625</v>
+        <f t="shared" si="20"/>
+        <v>647.10693359375</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -46169,13 +46356,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="19">
-        <v>600.482177734375</v>
+        <f t="shared" si="25"/>
+        <v>647.10693359375</v>
       </c>
       <c r="G61" s="19">
-        <v>600.482177734375</v>
+        <f t="shared" si="19"/>
+        <v>647.10693359375</v>
       </c>
       <c r="H61" s="19">
-        <v>600.482177734375</v>
+        <f t="shared" si="20"/>
+        <v>647.10693359375</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -46192,13 +46382,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="19">
-        <v>334.124755859375</v>
+        <f>$Q$17</f>
+        <v>217.669677734375</v>
       </c>
       <c r="G62" s="19">
-        <v>334.124755859375</v>
+        <f t="shared" si="19"/>
+        <v>217.669677734375</v>
       </c>
       <c r="H62" s="19">
-        <v>334.124755859375</v>
+        <f t="shared" si="20"/>
+        <v>217.669677734375</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -46215,13 +46408,16 @@
         <v>0</v>
       </c>
       <c r="F63" s="19">
-        <v>302.4658203125</v>
+        <f t="shared" ref="F63:F65" si="26">$Q$17</f>
+        <v>217.669677734375</v>
       </c>
       <c r="G63" s="19">
-        <v>302.4658203125</v>
+        <f t="shared" si="19"/>
+        <v>217.669677734375</v>
       </c>
       <c r="H63" s="19">
-        <v>302.4658203125</v>
+        <f t="shared" si="20"/>
+        <v>217.669677734375</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -46238,13 +46434,16 @@
         <v>0</v>
       </c>
       <c r="F64" s="19">
-        <v>341.094970703125</v>
+        <f t="shared" si="26"/>
+        <v>217.669677734375</v>
       </c>
       <c r="G64" s="19">
-        <v>341.094970703125</v>
+        <f t="shared" si="19"/>
+        <v>217.669677734375</v>
       </c>
       <c r="H64" s="19">
-        <v>341.094970703125</v>
+        <f t="shared" si="20"/>
+        <v>217.669677734375</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -46261,13 +46460,16 @@
         <v>0</v>
       </c>
       <c r="F65" s="19">
-        <v>227.06298828125</v>
+        <f t="shared" si="26"/>
+        <v>217.669677734375</v>
       </c>
       <c r="G65" s="19">
-        <v>227.06298828125</v>
+        <f t="shared" si="19"/>
+        <v>217.669677734375</v>
       </c>
       <c r="H65" s="19">
-        <v>227.06298828125</v>
+        <f t="shared" si="20"/>
+        <v>217.669677734375</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -46284,13 +46486,16 @@
         <v>0</v>
       </c>
       <c r="F66" s="19">
-        <v>240.155029296875</v>
+        <f>$Q$18</f>
+        <v>290.24149576822919</v>
       </c>
       <c r="G66" s="19">
-        <v>240.155029296875</v>
+        <f t="shared" si="19"/>
+        <v>290.24149576822919</v>
       </c>
       <c r="H66" s="19">
-        <v>240.155029296875</v>
+        <f t="shared" si="20"/>
+        <v>290.24149576822919</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -46307,13 +46512,16 @@
         <v>0</v>
       </c>
       <c r="F67" s="19">
-        <v>233.203125</v>
+        <f t="shared" ref="F67:F69" si="27">$Q$18</f>
+        <v>290.24149576822919</v>
       </c>
       <c r="G67" s="19">
-        <v>233.203125</v>
+        <f t="shared" si="19"/>
+        <v>290.24149576822919</v>
       </c>
       <c r="H67" s="19">
-        <v>233.203125</v>
+        <f t="shared" si="20"/>
+        <v>290.24149576822919</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -46330,13 +46538,16 @@
         <v>0</v>
       </c>
       <c r="F68" s="19">
-        <v>396.148681640625</v>
+        <f t="shared" si="27"/>
+        <v>290.24149576822919</v>
       </c>
       <c r="G68" s="19">
-        <v>396.148681640625</v>
+        <f t="shared" si="19"/>
+        <v>290.24149576822919</v>
       </c>
       <c r="H68" s="19">
-        <v>396.148681640625</v>
+        <f t="shared" si="20"/>
+        <v>290.24149576822919</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
@@ -46353,13 +46564,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="19">
-        <v>238.85498046875</v>
+        <f t="shared" si="27"/>
+        <v>290.24149576822919</v>
       </c>
       <c r="G69" s="19">
-        <v>238.85498046875</v>
+        <f t="shared" si="19"/>
+        <v>290.24149576822919</v>
       </c>
       <c r="H69" s="19">
-        <v>238.85498046875</v>
+        <f t="shared" si="20"/>
+        <v>290.24149576822919</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
@@ -46376,13 +46590,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="19">
-        <v>217.669677734375</v>
+        <f>$Q$19</f>
+        <v>396.148681640625</v>
       </c>
       <c r="G70" s="19">
-        <v>217.669677734375</v>
+        <f t="shared" si="19"/>
+        <v>396.148681640625</v>
       </c>
       <c r="H70" s="19">
-        <v>217.669677734375</v>
+        <f t="shared" si="20"/>
+        <v>396.148681640625</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -46399,13 +46616,16 @@
         <v>0</v>
       </c>
       <c r="F71" s="19">
-        <v>330.7373046875</v>
+        <f t="shared" ref="F71:F73" si="28">$Q$19</f>
+        <v>396.148681640625</v>
       </c>
       <c r="G71" s="19">
-        <v>330.7373046875</v>
+        <f t="shared" si="19"/>
+        <v>396.148681640625</v>
       </c>
       <c r="H71" s="19">
-        <v>330.7373046875</v>
+        <f t="shared" si="20"/>
+        <v>396.148681640625</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -46422,13 +46642,16 @@
         <v>0</v>
       </c>
       <c r="F72" s="19">
-        <v>307.061767578125</v>
+        <f t="shared" si="28"/>
+        <v>396.148681640625</v>
       </c>
       <c r="G72" s="19">
-        <v>307.061767578125</v>
+        <f t="shared" si="19"/>
+        <v>396.148681640625</v>
       </c>
       <c r="H72" s="19">
-        <v>307.061767578125</v>
+        <f t="shared" si="20"/>
+        <v>396.148681640625</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
@@ -46445,13 +46668,16 @@
         <v>0</v>
       </c>
       <c r="F73" s="19">
-        <v>314.31884765625</v>
+        <f t="shared" si="28"/>
+        <v>396.148681640625</v>
       </c>
       <c r="G73" s="19">
-        <v>314.31884765625</v>
+        <f t="shared" si="19"/>
+        <v>396.148681640625</v>
       </c>
       <c r="H73" s="19">
-        <v>314.31884765625</v>
+        <f t="shared" si="20"/>
+        <v>396.148681640625</v>
       </c>
     </row>
   </sheetData>
@@ -46585,7 +46811,7 @@
   <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46648,14 +46874,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G2" s="19">
-        <f>F2/4</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H2" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
         <v>138</v>
@@ -46696,13 +46921,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G3" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H3" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q3">
         <v>300</v>
@@ -46711,13 +46936,13 @@
         <v>600</v>
       </c>
       <c r="S3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T3">
         <v>500</v>
       </c>
       <c r="U3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="V3">
         <v>200</v>
@@ -46740,13 +46965,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G4" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H4" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
         <v>78</v>
@@ -46784,13 +47009,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G5" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H5" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -46810,11 +47035,11 @@
       </c>
       <c r="R5">
         <f>($T$3-$S$3)*O5+$S$3</f>
-        <v>317.572021484375</v>
+        <v>271.96502685546875</v>
       </c>
       <c r="S5">
         <f>($V$3-$U$3)*P5+$U$3</f>
-        <v>184.20867919921875</v>
+        <v>168.4173583984375</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -46831,13 +47056,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G6" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H6" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -46857,11 +47082,11 @@
       </c>
       <c r="R6">
         <f t="shared" ref="R6:R16" si="1">($T$3-$S$3)*O6+$S$3</f>
-        <v>363.8427734375</v>
+        <v>329.803466796875</v>
       </c>
       <c r="S6">
         <f t="shared" ref="S6:S16" si="2">($V$3-$U$3)*P6+$U$3</f>
-        <v>164.697265625</v>
+        <v>129.39453125</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -46878,13 +47103,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G7" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H7" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -46904,11 +47129,11 @@
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>384.307861328125</v>
+        <v>355.38482666015625</v>
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
-        <v>180.62896728515625</v>
+        <v>161.2579345703125</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -46925,13 +47150,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G8" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H8" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -46951,11 +47176,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>427.89306640625</v>
+        <v>409.8663330078125</v>
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
-        <v>150.0946044921875</v>
+        <v>100.189208984375</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -46972,13 +47197,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H9" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -46998,11 +47223,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>408.758544921875</v>
+        <v>385.94818115234375</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>165.30609130859375</v>
+        <v>130.6121826171875</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -47019,13 +47244,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H10" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>6</v>
@@ -47045,11 +47270,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>326.611328125</v>
+        <v>283.26416015625</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>191.424560546875</v>
+        <v>182.84912109375</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -47066,13 +47291,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G11" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H11" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -47092,11 +47317,11 @@
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>380.767822265625</v>
+        <v>350.95977783203125</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>163.82598876953125</v>
+        <v>127.6519775390625</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -47113,13 +47338,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G12" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H12" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -47139,11 +47364,11 @@
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>302.96630859375</v>
+        <v>253.7078857421875</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>165.0543212890625</v>
+        <v>130.108642578125</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -47160,13 +47385,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G13" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H13" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M13">
         <v>9</v>
@@ -47186,11 +47411,11 @@
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>333.929443359375</v>
+        <v>292.41180419921875</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
-        <v>187.71209716796875</v>
+        <v>175.4241943359375</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -47207,13 +47432,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G14" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H14" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M14">
         <v>10</v>
@@ -47233,11 +47458,11 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>368.6767578125</v>
+        <v>335.845947265625</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>164.53857421875</v>
+        <v>129.0771484375</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -47254,13 +47479,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G15" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H15" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M15">
         <v>11</v>
@@ -47280,11 +47505,11 @@
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>495.587158203125</v>
+        <v>494.48394775390625</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
-        <v>171.92535400390625</v>
+        <v>143.8507080078125</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -47301,13 +47526,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G16" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H16" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M16">
         <v>12</v>
@@ -47327,11 +47552,11 @@
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>454.21142578125</v>
+        <v>442.7642822265625</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
-        <v>188.1195068359375</v>
+        <v>176.239013671875</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
@@ -47348,13 +47573,28 @@
         <v>0</v>
       </c>
       <c r="F17" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H17" s="19">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17">
+        <f>MIN(Q5:Q16)</f>
+        <v>301.79443359375</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:S17" si="3">MIN(R5:R16)</f>
+        <v>253.7078857421875</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>100.189208984375</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
@@ -47371,13 +47611,28 @@
         <v>0</v>
       </c>
       <c r="F18" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G18" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H18" s="19">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(Q5:Q16)</f>
+        <v>391.38031005859375</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:S18" si="4">AVERAGE(R5:R16)</f>
+        <v>350.53380330403644</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>146.25600179036459</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
@@ -47394,13 +47649,28 @@
         <v>0</v>
       </c>
       <c r="F19" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G19" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H19" s="19">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q19">
+        <f>MAX(Q5:Q16)</f>
+        <v>557.1990966796875</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:S19" si="5">MAX(R5:R16)</f>
+        <v>494.48394775390625</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>182.84912109375</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
@@ -47417,13 +47687,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G20" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H20" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="P20" t="s">
         <v>193</v>
@@ -47449,13 +47719,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G21" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H21" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -47526,13 +47796,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H22" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -47603,13 +47873,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G23" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H23" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -47637,11 +47907,11 @@
         <v>75</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:X23" si="3">Q23/4</f>
+        <f t="shared" ref="W23:X23" si="6">Q23/4</f>
         <v>75</v>
       </c>
       <c r="X23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="Y23">
@@ -47649,11 +47919,11 @@
         <v>315.6280517578125</v>
       </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:AA23" si="4">T23</f>
+        <f t="shared" ref="Z23:AA23" si="7">T23</f>
         <v>317.572021484375</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>184.20867919921875</v>
       </c>
       <c r="AB23">
@@ -47661,11 +47931,11 @@
         <v>150</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AD23" si="5">Q23/2</f>
+        <f t="shared" ref="AC23:AD23" si="8">Q23/2</f>
         <v>150</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="AE23">
@@ -47673,11 +47943,11 @@
         <v>315.6280517578125</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AG23" si="6">T23</f>
+        <f t="shared" ref="AF23:AG23" si="9">T23</f>
         <v>317.572021484375</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>184.20867919921875</v>
       </c>
     </row>
@@ -47695,13 +47965,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G24" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H24" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -47725,51 +47995,51 @@
         <v>164.697265625</v>
       </c>
       <c r="V24">
-        <f t="shared" ref="V24:V34" si="7">P24/4</f>
+        <f t="shared" ref="V24:V34" si="10">P24/4</f>
         <v>75</v>
       </c>
       <c r="W24">
-        <f t="shared" ref="W24:W34" si="8">Q24/4</f>
+        <f t="shared" ref="W24:W34" si="11">Q24/4</f>
         <v>75</v>
       </c>
       <c r="X24">
-        <f t="shared" ref="X24:X34" si="9">R24/4</f>
+        <f t="shared" ref="X24:X34" si="12">R24/4</f>
         <v>25</v>
       </c>
       <c r="Y24">
-        <f t="shared" ref="Y24:Y34" si="10">S24</f>
+        <f t="shared" ref="Y24:Y34" si="13">S24</f>
         <v>395.7275390625</v>
       </c>
       <c r="Z24">
-        <f t="shared" ref="Z24:Z34" si="11">T24</f>
+        <f t="shared" ref="Z24:Z34" si="14">T24</f>
         <v>363.8427734375</v>
       </c>
       <c r="AA24">
-        <f t="shared" ref="AA24:AA34" si="12">U24</f>
+        <f t="shared" ref="AA24:AA34" si="15">U24</f>
         <v>164.697265625</v>
       </c>
       <c r="AB24">
-        <f t="shared" ref="AB24:AB34" si="13">P24/2</f>
+        <f t="shared" ref="AB24:AB34" si="16">P24/2</f>
         <v>150</v>
       </c>
       <c r="AC24">
-        <f t="shared" ref="AC24:AC34" si="14">Q24/2</f>
+        <f t="shared" ref="AC24:AC34" si="17">Q24/2</f>
         <v>150</v>
       </c>
       <c r="AD24">
-        <f t="shared" ref="AD24:AD34" si="15">R24/2</f>
+        <f t="shared" ref="AD24:AD34" si="18">R24/2</f>
         <v>50</v>
       </c>
       <c r="AE24">
-        <f t="shared" ref="AE24:AE34" si="16">S24</f>
+        <f t="shared" ref="AE24:AE34" si="19">S24</f>
         <v>395.7275390625</v>
       </c>
       <c r="AF24">
-        <f t="shared" ref="AF24:AF34" si="17">T24</f>
+        <f t="shared" ref="AF24:AF34" si="20">T24</f>
         <v>363.8427734375</v>
       </c>
       <c r="AG24">
-        <f t="shared" ref="AG24:AG34" si="18">U24</f>
+        <f t="shared" ref="AG24:AG34" si="21">U24</f>
         <v>164.697265625</v>
       </c>
     </row>
@@ -47787,13 +48057,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G25" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H25" s="19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -47817,51 +48087,51 @@
         <v>180.62896728515625</v>
       </c>
       <c r="V25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>551.3763427734375</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>384.307861328125</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>180.62896728515625</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>551.3763427734375</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>384.307861328125</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>180.62896728515625</v>
       </c>
     </row>
@@ -47879,10 +48149,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H26" s="19">
         <v>50</v>
@@ -47909,51 +48179,51 @@
         <v>150.0946044921875</v>
       </c>
       <c r="V26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>408.306884765625</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>427.89306640625</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>150.0946044921875</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>408.306884765625</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>427.89306640625</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>150.0946044921875</v>
       </c>
     </row>
@@ -47971,10 +48241,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H27" s="19">
         <v>50</v>
@@ -48001,51 +48271,51 @@
         <v>165.30609130859375</v>
       </c>
       <c r="V27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>393.2281494140625</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>408.758544921875</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>165.30609130859375</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>393.2281494140625</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>408.758544921875</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>165.30609130859375</v>
       </c>
     </row>
@@ -48063,10 +48333,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G28" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H28" s="19">
         <v>50</v>
@@ -48093,51 +48363,51 @@
         <v>191.424560546875</v>
       </c>
       <c r="V28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>301.79443359375</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>326.611328125</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>191.424560546875</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>301.79443359375</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>326.611328125</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>191.424560546875</v>
       </c>
     </row>
@@ -48155,10 +48425,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G29" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H29" s="19">
         <v>50</v>
@@ -48185,51 +48455,51 @@
         <v>163.82598876953125</v>
       </c>
       <c r="V29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>557.1990966796875</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>380.767822265625</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>163.82598876953125</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>557.1990966796875</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>380.767822265625</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>163.82598876953125</v>
       </c>
     </row>
@@ -48247,10 +48517,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G30" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H30" s="19">
         <v>50</v>
@@ -48277,51 +48547,51 @@
         <v>165.0543212890625</v>
       </c>
       <c r="V30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>346.893310546875</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>302.96630859375</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>165.0543212890625</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>346.893310546875</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>302.96630859375</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>165.0543212890625</v>
       </c>
     </row>
@@ -48339,10 +48609,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G31" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H31" s="19">
         <v>50</v>
@@ -48369,51 +48639,51 @@
         <v>187.71209716796875</v>
       </c>
       <c r="V31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>474.9298095703125</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>333.929443359375</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>187.71209716796875</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>474.9298095703125</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>333.929443359375</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>187.71209716796875</v>
       </c>
     </row>
@@ -48431,10 +48701,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G32" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H32" s="19">
         <v>50</v>
@@ -48461,51 +48731,51 @@
         <v>164.53857421875</v>
       </c>
       <c r="V32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>317.431640625</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>368.6767578125</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>164.53857421875</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>317.431640625</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>368.6767578125</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>164.53857421875</v>
       </c>
     </row>
@@ -48523,10 +48793,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H33" s="19">
         <v>50</v>
@@ -48553,51 +48823,51 @@
         <v>171.92535400390625</v>
       </c>
       <c r="V33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>318.6859130859375</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>495.587158203125</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>171.92535400390625</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>318.6859130859375</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>495.587158203125</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>171.92535400390625</v>
       </c>
     </row>
@@ -48615,10 +48885,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G34" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H34" s="19">
         <v>50</v>
@@ -48645,51 +48915,51 @@
         <v>188.1195068359375</v>
       </c>
       <c r="V34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="W34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="X34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>315.362548828125</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>454.21142578125</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>188.1195068359375</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>315.362548828125</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>454.21142578125</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>188.1195068359375</v>
       </c>
     </row>
@@ -48707,10 +48977,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H35" s="19">
         <v>50</v>
@@ -48730,10 +49000,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G36" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H36" s="19">
         <v>50</v>
@@ -48753,10 +49023,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G37" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H37" s="19">
         <v>50</v>
@@ -48776,13 +49046,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="19">
-        <v>315.6280517578125</v>
+        <f>$Q$17</f>
+        <v>301.79443359375</v>
       </c>
       <c r="G38" s="19">
-        <v>315.6280517578125</v>
+        <f>F38</f>
+        <v>301.79443359375</v>
       </c>
       <c r="H38" s="19">
-        <v>315.6280517578125</v>
+        <f>F38</f>
+        <v>301.79443359375</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.2">
@@ -48799,13 +49072,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="19">
-        <v>395.7275390625</v>
+        <f t="shared" ref="F39:F41" si="22">$Q$17</f>
+        <v>301.79443359375</v>
       </c>
       <c r="G39" s="19">
-        <v>395.7275390625</v>
+        <f t="shared" ref="G39:G73" si="23">F39</f>
+        <v>301.79443359375</v>
       </c>
       <c r="H39" s="19">
-        <v>395.7275390625</v>
+        <f t="shared" ref="H39:H73" si="24">F39</f>
+        <v>301.79443359375</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.2">
@@ -48822,13 +49098,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="19">
-        <v>551.3763427734375</v>
+        <f t="shared" si="22"/>
+        <v>301.79443359375</v>
       </c>
       <c r="G40" s="19">
-        <v>551.3763427734375</v>
+        <f t="shared" si="23"/>
+        <v>301.79443359375</v>
       </c>
       <c r="H40" s="19">
-        <v>551.3763427734375</v>
+        <f t="shared" si="24"/>
+        <v>301.79443359375</v>
       </c>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.2">
@@ -48845,13 +49124,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="19">
-        <v>408.306884765625</v>
+        <f t="shared" si="22"/>
+        <v>301.79443359375</v>
       </c>
       <c r="G41" s="19">
-        <v>408.306884765625</v>
+        <f t="shared" si="23"/>
+        <v>301.79443359375</v>
       </c>
       <c r="H41" s="19">
-        <v>408.306884765625</v>
+        <f t="shared" si="24"/>
+        <v>301.79443359375</v>
       </c>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.2">
@@ -48868,13 +49150,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="19">
-        <v>393.2281494140625</v>
+        <f>$Q$18</f>
+        <v>391.38031005859375</v>
       </c>
       <c r="G42" s="19">
-        <v>393.2281494140625</v>
+        <f t="shared" si="23"/>
+        <v>391.38031005859375</v>
       </c>
       <c r="H42" s="19">
-        <v>393.2281494140625</v>
+        <f t="shared" si="24"/>
+        <v>391.38031005859375</v>
       </c>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.2">
@@ -48891,13 +49176,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="19">
-        <v>301.79443359375</v>
+        <f t="shared" ref="F43:F45" si="25">$Q$18</f>
+        <v>391.38031005859375</v>
       </c>
       <c r="G43" s="19">
-        <v>301.79443359375</v>
+        <f t="shared" si="23"/>
+        <v>391.38031005859375</v>
       </c>
       <c r="H43" s="19">
-        <v>301.79443359375</v>
+        <f t="shared" si="24"/>
+        <v>391.38031005859375</v>
       </c>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.2">
@@ -48914,13 +49202,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="19">
-        <v>557.1990966796875</v>
+        <f t="shared" si="25"/>
+        <v>391.38031005859375</v>
       </c>
       <c r="G44" s="19">
-        <v>557.1990966796875</v>
+        <f t="shared" si="23"/>
+        <v>391.38031005859375</v>
       </c>
       <c r="H44" s="19">
-        <v>557.1990966796875</v>
+        <f t="shared" si="24"/>
+        <v>391.38031005859375</v>
       </c>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.2">
@@ -48937,13 +49228,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="19">
-        <v>346.893310546875</v>
+        <f t="shared" si="25"/>
+        <v>391.38031005859375</v>
       </c>
       <c r="G45" s="19">
-        <v>346.893310546875</v>
+        <f t="shared" si="23"/>
+        <v>391.38031005859375</v>
       </c>
       <c r="H45" s="19">
-        <v>346.893310546875</v>
+        <f t="shared" si="24"/>
+        <v>391.38031005859375</v>
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
@@ -48960,13 +49254,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="19">
-        <v>474.9298095703125</v>
+        <f>$Q$19</f>
+        <v>557.1990966796875</v>
       </c>
       <c r="G46" s="19">
-        <v>474.9298095703125</v>
+        <f t="shared" si="23"/>
+        <v>557.1990966796875</v>
       </c>
       <c r="H46" s="19">
-        <v>474.9298095703125</v>
+        <f t="shared" si="24"/>
+        <v>557.1990966796875</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
@@ -48983,13 +49280,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="19">
-        <v>317.431640625</v>
+        <f t="shared" ref="F47:F49" si="26">$Q$19</f>
+        <v>557.1990966796875</v>
       </c>
       <c r="G47" s="19">
-        <v>317.431640625</v>
+        <f t="shared" si="23"/>
+        <v>557.1990966796875</v>
       </c>
       <c r="H47" s="19">
-        <v>317.431640625</v>
+        <f t="shared" si="24"/>
+        <v>557.1990966796875</v>
       </c>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.2">
@@ -49006,13 +49306,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="19">
-        <v>318.6859130859375</v>
+        <f t="shared" si="26"/>
+        <v>557.1990966796875</v>
       </c>
       <c r="G48" s="19">
-        <v>318.6859130859375</v>
+        <f t="shared" si="23"/>
+        <v>557.1990966796875</v>
       </c>
       <c r="H48" s="19">
-        <v>318.6859130859375</v>
+        <f t="shared" si="24"/>
+        <v>557.1990966796875</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -49029,13 +49332,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="19">
-        <v>315.362548828125</v>
+        <f t="shared" si="26"/>
+        <v>557.1990966796875</v>
       </c>
       <c r="G49" s="19">
-        <v>315.362548828125</v>
+        <f t="shared" si="23"/>
+        <v>557.1990966796875</v>
       </c>
       <c r="H49" s="19">
-        <v>315.362548828125</v>
+        <f t="shared" si="24"/>
+        <v>557.1990966796875</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -49052,13 +49358,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="19">
-        <v>317.572021484375</v>
+        <f>$R$17</f>
+        <v>253.7078857421875</v>
       </c>
       <c r="G50" s="19">
-        <v>317.572021484375</v>
+        <f t="shared" si="23"/>
+        <v>253.7078857421875</v>
       </c>
       <c r="H50" s="19">
-        <v>317.572021484375</v>
+        <f t="shared" si="24"/>
+        <v>253.7078857421875</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -49075,13 +49384,16 @@
         <v>0</v>
       </c>
       <c r="F51" s="19">
-        <v>363.8427734375</v>
+        <f t="shared" ref="F51:F53" si="27">$R$17</f>
+        <v>253.7078857421875</v>
       </c>
       <c r="G51" s="19">
-        <v>363.8427734375</v>
+        <f t="shared" si="23"/>
+        <v>253.7078857421875</v>
       </c>
       <c r="H51" s="19">
-        <v>363.8427734375</v>
+        <f t="shared" si="24"/>
+        <v>253.7078857421875</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -49098,13 +49410,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="19">
-        <v>384.307861328125</v>
+        <f t="shared" si="27"/>
+        <v>253.7078857421875</v>
       </c>
       <c r="G52" s="19">
-        <v>384.307861328125</v>
+        <f t="shared" si="23"/>
+        <v>253.7078857421875</v>
       </c>
       <c r="H52" s="19">
-        <v>384.307861328125</v>
+        <f t="shared" si="24"/>
+        <v>253.7078857421875</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -49121,13 +49436,16 @@
         <v>0</v>
       </c>
       <c r="F53" s="19">
-        <v>427.89306640625</v>
+        <f t="shared" si="27"/>
+        <v>253.7078857421875</v>
       </c>
       <c r="G53" s="19">
-        <v>427.89306640625</v>
+        <f t="shared" si="23"/>
+        <v>253.7078857421875</v>
       </c>
       <c r="H53" s="19">
-        <v>427.89306640625</v>
+        <f t="shared" si="24"/>
+        <v>253.7078857421875</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -49144,13 +49462,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="19">
-        <v>408.758544921875</v>
+        <f>$R$18</f>
+        <v>350.53380330403644</v>
       </c>
       <c r="G54" s="19">
-        <v>408.758544921875</v>
+        <f t="shared" si="23"/>
+        <v>350.53380330403644</v>
       </c>
       <c r="H54" s="19">
-        <v>408.758544921875</v>
+        <f t="shared" si="24"/>
+        <v>350.53380330403644</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -49167,13 +49488,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="19">
-        <v>326.611328125</v>
+        <f t="shared" ref="F55:F57" si="28">$R$18</f>
+        <v>350.53380330403644</v>
       </c>
       <c r="G55" s="19">
-        <v>326.611328125</v>
+        <f t="shared" si="23"/>
+        <v>350.53380330403644</v>
       </c>
       <c r="H55" s="19">
-        <v>326.611328125</v>
+        <f t="shared" si="24"/>
+        <v>350.53380330403644</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -49190,13 +49514,16 @@
         <v>0</v>
       </c>
       <c r="F56" s="19">
-        <v>380.767822265625</v>
+        <f t="shared" si="28"/>
+        <v>350.53380330403644</v>
       </c>
       <c r="G56" s="19">
-        <v>380.767822265625</v>
+        <f t="shared" si="23"/>
+        <v>350.53380330403644</v>
       </c>
       <c r="H56" s="19">
-        <v>380.767822265625</v>
+        <f t="shared" si="24"/>
+        <v>350.53380330403644</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -49213,13 +49540,16 @@
         <v>0</v>
       </c>
       <c r="F57" s="19">
-        <v>302.96630859375</v>
+        <f t="shared" si="28"/>
+        <v>350.53380330403644</v>
       </c>
       <c r="G57" s="19">
-        <v>302.96630859375</v>
+        <f t="shared" si="23"/>
+        <v>350.53380330403644</v>
       </c>
       <c r="H57" s="19">
-        <v>302.96630859375</v>
+        <f t="shared" si="24"/>
+        <v>350.53380330403644</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -49236,13 +49566,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="19">
-        <v>333.929443359375</v>
+        <f>$R$19</f>
+        <v>494.48394775390625</v>
       </c>
       <c r="G58" s="19">
-        <v>333.929443359375</v>
+        <f t="shared" si="23"/>
+        <v>494.48394775390625</v>
       </c>
       <c r="H58" s="19">
-        <v>333.929443359375</v>
+        <f t="shared" si="24"/>
+        <v>494.48394775390625</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -49259,13 +49592,16 @@
         <v>0</v>
       </c>
       <c r="F59" s="19">
-        <v>368.6767578125</v>
+        <f t="shared" ref="F59:F61" si="29">$R$19</f>
+        <v>494.48394775390625</v>
       </c>
       <c r="G59" s="19">
-        <v>368.6767578125</v>
+        <f t="shared" si="23"/>
+        <v>494.48394775390625</v>
       </c>
       <c r="H59" s="19">
-        <v>368.6767578125</v>
+        <f t="shared" si="24"/>
+        <v>494.48394775390625</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -49282,13 +49618,16 @@
         <v>0</v>
       </c>
       <c r="F60" s="19">
-        <v>495.587158203125</v>
+        <f t="shared" si="29"/>
+        <v>494.48394775390625</v>
       </c>
       <c r="G60" s="19">
-        <v>495.587158203125</v>
+        <f t="shared" si="23"/>
+        <v>494.48394775390625</v>
       </c>
       <c r="H60" s="19">
-        <v>495.587158203125</v>
+        <f t="shared" si="24"/>
+        <v>494.48394775390625</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -49305,13 +49644,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="19">
-        <v>454.21142578125</v>
+        <f t="shared" si="29"/>
+        <v>494.48394775390625</v>
       </c>
       <c r="G61" s="19">
-        <v>454.21142578125</v>
+        <f t="shared" si="23"/>
+        <v>494.48394775390625</v>
       </c>
       <c r="H61" s="19">
-        <v>454.21142578125</v>
+        <f t="shared" si="24"/>
+        <v>494.48394775390625</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -49328,13 +49670,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="19">
-        <v>184.20867919921875</v>
+        <f>$S$17</f>
+        <v>100.189208984375</v>
       </c>
       <c r="G62" s="19">
-        <v>184.20867919921875</v>
+        <f t="shared" si="23"/>
+        <v>100.189208984375</v>
       </c>
       <c r="H62" s="19">
-        <v>184.20867919921875</v>
+        <f t="shared" si="24"/>
+        <v>100.189208984375</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -49351,13 +49696,16 @@
         <v>0</v>
       </c>
       <c r="F63" s="19">
-        <v>164.697265625</v>
+        <f t="shared" ref="F63:F65" si="30">$S$17</f>
+        <v>100.189208984375</v>
       </c>
       <c r="G63" s="19">
-        <v>164.697265625</v>
+        <f t="shared" si="23"/>
+        <v>100.189208984375</v>
       </c>
       <c r="H63" s="19">
-        <v>164.697265625</v>
+        <f t="shared" si="24"/>
+        <v>100.189208984375</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -49374,13 +49722,16 @@
         <v>0</v>
       </c>
       <c r="F64" s="19">
-        <v>180.62896728515625</v>
+        <f t="shared" si="30"/>
+        <v>100.189208984375</v>
       </c>
       <c r="G64" s="19">
-        <v>180.62896728515625</v>
+        <f t="shared" si="23"/>
+        <v>100.189208984375</v>
       </c>
       <c r="H64" s="19">
-        <v>180.62896728515625</v>
+        <f t="shared" si="24"/>
+        <v>100.189208984375</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -49397,13 +49748,16 @@
         <v>0</v>
       </c>
       <c r="F65" s="19">
-        <v>150.0946044921875</v>
+        <f t="shared" si="30"/>
+        <v>100.189208984375</v>
       </c>
       <c r="G65" s="19">
-        <v>150.0946044921875</v>
+        <f t="shared" si="23"/>
+        <v>100.189208984375</v>
       </c>
       <c r="H65" s="19">
-        <v>150.0946044921875</v>
+        <f t="shared" si="24"/>
+        <v>100.189208984375</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -49420,13 +49774,16 @@
         <v>0</v>
       </c>
       <c r="F66" s="19">
-        <v>165.30609130859375</v>
+        <f>$S$18</f>
+        <v>146.25600179036459</v>
       </c>
       <c r="G66" s="19">
-        <v>165.30609130859375</v>
+        <f t="shared" si="23"/>
+        <v>146.25600179036459</v>
       </c>
       <c r="H66" s="19">
-        <v>165.30609130859375</v>
+        <f t="shared" si="24"/>
+        <v>146.25600179036459</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -49443,13 +49800,16 @@
         <v>0</v>
       </c>
       <c r="F67" s="19">
-        <v>191.424560546875</v>
+        <f t="shared" ref="F67:F69" si="31">$S$18</f>
+        <v>146.25600179036459</v>
       </c>
       <c r="G67" s="19">
-        <v>191.424560546875</v>
+        <f t="shared" si="23"/>
+        <v>146.25600179036459</v>
       </c>
       <c r="H67" s="19">
-        <v>191.424560546875</v>
+        <f t="shared" si="24"/>
+        <v>146.25600179036459</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -49466,13 +49826,16 @@
         <v>0</v>
       </c>
       <c r="F68" s="19">
-        <v>163.82598876953125</v>
+        <f t="shared" si="31"/>
+        <v>146.25600179036459</v>
       </c>
       <c r="G68" s="19">
-        <v>163.82598876953125</v>
+        <f t="shared" si="23"/>
+        <v>146.25600179036459</v>
       </c>
       <c r="H68" s="19">
-        <v>163.82598876953125</v>
+        <f t="shared" si="24"/>
+        <v>146.25600179036459</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
@@ -49489,13 +49852,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="19">
-        <v>165.0543212890625</v>
+        <f t="shared" si="31"/>
+        <v>146.25600179036459</v>
       </c>
       <c r="G69" s="19">
-        <v>165.0543212890625</v>
+        <f t="shared" si="23"/>
+        <v>146.25600179036459</v>
       </c>
       <c r="H69" s="19">
-        <v>165.0543212890625</v>
+        <f t="shared" si="24"/>
+        <v>146.25600179036459</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
@@ -49512,13 +49878,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="19">
-        <v>187.71209716796875</v>
+        <f>$S$19</f>
+        <v>182.84912109375</v>
       </c>
       <c r="G70" s="19">
-        <v>187.71209716796875</v>
+        <f t="shared" si="23"/>
+        <v>182.84912109375</v>
       </c>
       <c r="H70" s="19">
-        <v>187.71209716796875</v>
+        <f t="shared" si="24"/>
+        <v>182.84912109375</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -49535,13 +49904,16 @@
         <v>0</v>
       </c>
       <c r="F71" s="19">
-        <v>164.53857421875</v>
+        <f t="shared" ref="F71:F73" si="32">$S$19</f>
+        <v>182.84912109375</v>
       </c>
       <c r="G71" s="19">
-        <v>164.53857421875</v>
+        <f t="shared" si="23"/>
+        <v>182.84912109375</v>
       </c>
       <c r="H71" s="19">
-        <v>164.53857421875</v>
+        <f t="shared" si="24"/>
+        <v>182.84912109375</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -49558,13 +49930,16 @@
         <v>0</v>
       </c>
       <c r="F72" s="19">
-        <v>171.92535400390625</v>
+        <f t="shared" si="32"/>
+        <v>182.84912109375</v>
       </c>
       <c r="G72" s="19">
-        <v>171.92535400390625</v>
+        <f t="shared" si="23"/>
+        <v>182.84912109375</v>
       </c>
       <c r="H72" s="19">
-        <v>171.92535400390625</v>
+        <f t="shared" si="24"/>
+        <v>182.84912109375</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
@@ -49581,13 +49956,16 @@
         <v>0</v>
       </c>
       <c r="F73" s="19">
-        <v>188.1195068359375</v>
+        <f t="shared" si="32"/>
+        <v>182.84912109375</v>
       </c>
       <c r="G73" s="19">
-        <v>188.1195068359375</v>
+        <f t="shared" si="23"/>
+        <v>182.84912109375</v>
       </c>
       <c r="H73" s="19">
-        <v>188.1195068359375</v>
+        <f t="shared" si="24"/>
+        <v>182.84912109375</v>
       </c>
     </row>
   </sheetData>
